--- a/example_excel/test — копия.xlsx
+++ b/example_excel/test — копия.xlsx
@@ -1058,7 +1058,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>2024-03-08 00:02:17.848941</t>
+          <t>2024-03-16 13:05:06.289893</t>
         </is>
       </c>
     </row>

--- a/example_excel/test — копия.xlsx
+++ b/example_excel/test — копия.xlsx
@@ -1058,7 +1058,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>2024-03-16 13:05:06.289893</t>
+          <t>2024-03-17 21:51:33.141768</t>
         </is>
       </c>
     </row>

--- a/example_excel/test — копия.xlsx
+++ b/example_excel/test — копия.xlsx
@@ -1058,7 +1058,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>2024-03-17 21:51:33.141768</t>
+          <t>2024-03-26 21:52:05.163961</t>
         </is>
       </c>
     </row>

--- a/example_excel/test — копия.xlsx
+++ b/example_excel/test — копия.xlsx
@@ -400,7 +400,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:L53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
@@ -474,6 +474,11 @@
           <t>Цемент 12/12.b 2024-02-23 11:12:10.189418</t>
         </is>
       </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Привке 2024-03-31 17:41:18.958178</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -509,6 +514,9 @@
       <c r="K2" t="n">
         <v>12</v>
       </c>
+      <c r="L2" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -544,6 +552,9 @@
       <c r="K3" t="n">
         <v>12</v>
       </c>
+      <c r="L3" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -573,6 +584,9 @@
       <c r="K4" t="n">
         <v>12</v>
       </c>
+      <c r="L4" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -602,6 +616,9 @@
       <c r="K5" t="n">
         <v>12</v>
       </c>
+      <c r="L5" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -628,6 +645,9 @@
       <c r="K6" t="n">
         <v>1</v>
       </c>
+      <c r="L6" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -653,6 +673,9 @@
       </c>
       <c r="K7" t="n">
         <v>2</v>
+      </c>
+      <c r="L7" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="8">
@@ -680,6 +703,9 @@
       <c r="K8" t="n">
         <v>1</v>
       </c>
+      <c r="L8" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -706,8 +732,14 @@
       <c r="K9" t="n">
         <v>2</v>
       </c>
+      <c r="L9" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="10">
+      <c r="A10" t="n">
+        <v>12</v>
+      </c>
       <c r="B10" t="n">
         <v>2</v>
       </c>
@@ -726,6 +758,9 @@
       <c r="K10" t="n">
         <v>1</v>
       </c>
+      <c r="L10" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="11">
       <c r="B11" t="n">
@@ -743,6 +778,9 @@
       <c r="K11" t="n">
         <v>3</v>
       </c>
+      <c r="L11" t="n">
+        <v>123</v>
+      </c>
     </row>
     <row r="12">
       <c r="B12" t="n">
@@ -760,6 +798,9 @@
       <c r="K12" t="n">
         <v>12</v>
       </c>
+      <c r="L12" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="13">
       <c r="B13" t="n">
@@ -777,6 +818,9 @@
       <c r="K13" t="n">
         <v>3</v>
       </c>
+      <c r="L13" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="14">
       <c r="B14" t="n">
@@ -790,6 +834,9 @@
       </c>
       <c r="K14" t="n">
         <v>123</v>
+      </c>
+      <c r="L14" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="15">
@@ -1058,7 +1105,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>2024-03-26 21:52:05.163961</t>
+          <t>2024-04-07 00:01:46.795390</t>
         </is>
       </c>
     </row>

--- a/example_excel/test — копия.xlsx
+++ b/example_excel/test — копия.xlsx
@@ -419,11 +419,6 @@
   </cols>
   <sheetData>
     <row r="1" ht="22.5" customHeight="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Вариант 1</t>
-        </is>
-      </c>
       <c r="B1" t="inlineStr">
         <is>
           <t>Измерения 2024-01-11 22:38:43.192353</t>
@@ -481,9 +476,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>12</v>
-      </c>
+      <c r="A2" s="1" t="n"/>
       <c r="B2" t="n">
         <v>1</v>
       </c>
@@ -519,9 +512,6 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>123</v>
-      </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
@@ -557,9 +547,6 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>12</v>
-      </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
@@ -589,9 +576,6 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>123</v>
-      </c>
       <c r="B5" t="n">
         <v>2</v>
       </c>
@@ -621,9 +605,6 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>12</v>
-      </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
@@ -650,9 +631,6 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>123</v>
-      </c>
       <c r="B7" t="n">
         <v>10</v>
       </c>
@@ -679,9 +657,6 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>34.7</v>
-      </c>
       <c r="B8" t="n">
         <v>3</v>
       </c>
@@ -708,9 +683,6 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>123</v>
-      </c>
       <c r="B9" t="n">
         <v>228</v>
       </c>
@@ -737,9 +709,6 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>12</v>
-      </c>
       <c r="B10" t="n">
         <v>2</v>
       </c>
@@ -934,6 +903,9 @@
       </c>
     </row>
     <row r="26">
+      <c r="B26" t="n">
+        <v>12</v>
+      </c>
       <c r="K26" t="n">
         <v>45</v>
       </c>
@@ -1105,7 +1077,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>2024-04-07 00:01:46.795390</t>
+          <t>2024-04-20 12:39:46.916639</t>
         </is>
       </c>
     </row>
